--- a/TMT/Adobe/Adobe Valuation.xlsx
+++ b/TMT/Adobe/Adobe Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyu/Desktop/Coding/AI/AI_financial/Financial_Analysis_Automation/References/Examples/Adobe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyu/Desktop/Finance/Financial_Analysis/TMT/Adobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC22D32-4A07-5A4D-94FD-C113B22E8E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D7A2A6-A9DB-0441-BE63-03F34B07A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="760" windowWidth="30240" windowHeight="18000" activeTab="1" xr2:uid="{CDED3339-8939-2C43-8CE7-BFDE9000B176}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{CDED3339-8939-2C43-8CE7-BFDE9000B176}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Comps" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="248">
   <si>
     <t>Net Debt</t>
   </si>
@@ -727,9 +727,6 @@
   </si>
   <si>
     <t>75th Percentile</t>
-  </si>
-  <si>
-    <t>EV/EBIT Multiple</t>
   </si>
   <si>
     <t>Non-controlling Interests</t>
@@ -840,14 +837,20 @@
     <t>Other Operating Expenses</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Adjusted EBIT</t>
+  </si>
+  <si>
+    <t>Adjusted EBIT Margin</t>
+  </si>
+  <si>
+    <t>EV/EBITDA Multiple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -860,8 +863,9 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.000%"/>
     <numFmt numFmtId="173" formatCode="_([$$-1009]* #,##0.00_);_([$$-1009]* \(#,##0.00\);_([$$-1009]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1227,6 +1231,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1585,7 +1602,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1894,6 +1911,27 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="4" fillId="12" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,6 +2027,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2F5396"/>
       <color rgb="FF0432FF"/>
       <color rgb="FF00FA00"/>
     </mruColors>
@@ -3359,11 +3398,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>574.4</v>
-    <v>278.23</v>
-    <v>1.3253999999999999</v>
-    <v>6.64</v>
-    <v>1.1885E-2</v>
+    <v>625.83410000000003</v>
+    <v>318.60000000000002</v>
+    <v>1.3439000000000001</v>
+    <v>4.05</v>
+    <v>6.5400000000000007E-3</v>
+    <v>-0.375</v>
+    <v>-6.0159999999999999E-4</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -3371,25 +3412,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>566.62</v>
+    <v>625.6</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.579463622656</v>
+    <v>45258.87670258047</v>
     <v>4</v>
-    <v>558.62</v>
-    <v>257403855000</v>
+    <v>612.26</v>
+    <v>283797596000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>560</v>
-    <v>50.303899999999999</v>
-    <v>558.71</v>
-    <v>565.35</v>
+    <v>613.97500000000002</v>
+    <v>55.756500000000003</v>
+    <v>619.27</v>
+    <v>623.32000000000005</v>
+    <v>622.94500000000005</v>
     <v>455300000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>195963</v>
-    <v>2555987</v>
+    <v>2259940</v>
+    <v>2473701</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -3433,6 +3475,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3454,6 +3498,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3470,7 +3515,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3481,13 +3526,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3560,13 +3608,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -3620,6 +3674,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3627,6 +3684,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3994,10 +4054,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141C8BDE-CED0-504C-971A-9811DEFB211E}">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="111" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4043,7 +4103,7 @@
         <v>184</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>2</v>
@@ -4056,12 +4116,12 @@
       <c r="F4" s="35"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="164"/>
       <c r="C5" s="161"/>
@@ -4083,7 +4143,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="168" t="s">
         <v>211</v>
@@ -4097,9 +4157,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="188" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="197" t="s">
         <v>212</v>
       </c>
       <c r="C8" s="154"/>
@@ -4111,9 +4171,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="189"/>
+        <v>236</v>
+      </c>
+      <c r="B9" s="198"/>
       <c r="C9" s="154"/>
       <c r="D9" s="154"/>
       <c r="E9" s="154"/>
@@ -4123,9 +4183,9 @@
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="199" t="s">
         <v>213</v>
       </c>
       <c r="C10" s="178"/>
@@ -4137,9 +4197,9 @@
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="170" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="191"/>
+        <v>238</v>
+      </c>
+      <c r="B11" s="200"/>
       <c r="C11" s="154"/>
       <c r="D11" s="154"/>
       <c r="E11" s="154"/>
@@ -4149,9 +4209,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="170" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="192"/>
+        <v>239</v>
+      </c>
+      <c r="B12" s="201"/>
       <c r="C12" s="154"/>
       <c r="D12" s="154"/>
       <c r="E12" s="154"/>
@@ -4161,7 +4221,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="168" t="s">
         <v>214</v>
@@ -4355,7 +4415,7 @@
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="167"/>
       <c r="C22" s="159" t="s">
@@ -4374,7 +4434,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4396,21 +4456,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="173"/>
-      <c r="C29" s="193"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="173"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="173"/>
-      <c r="C30" s="194"/>
+      <c r="C30" s="203"/>
       <c r="D30" s="173"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="173"/>
-      <c r="C31" s="194"/>
+      <c r="C31" s="203"/>
       <c r="D31" s="173"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -4429,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384DA71C-0C48-2542-8C38-9898C8177F41}">
-  <dimension ref="B1:W39"/>
+  <dimension ref="B1:AN56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4446,7 +4506,12 @@
     <col min="11" max="14" width="15.5" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="36" width="10.83203125" style="1"/>
+    <col min="37" max="37" width="24.83203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="16.5" style="1" customWidth="1"/>
+    <col min="39" max="39" width="25.1640625" style="1" customWidth="1"/>
+    <col min="40" max="41" width="10.1640625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4458,7 +4523,7 @@
     </row>
     <row r="3" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="66"/>
@@ -4475,11 +4540,11 @@
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="198"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="207"/>
       <c r="F4" s="67" t="s">
         <v>199</v>
       </c>
@@ -4505,7 +4570,7 @@
       </c>
       <c r="C5" s="86" cm="1">
         <f t="array" ref="C5">_FV(B1,"Price")</f>
-        <v>565.35</v>
+        <v>623.32000000000005</v>
       </c>
       <c r="D5" s="87"/>
       <c r="F5" s="38"/>
@@ -4530,7 +4595,7 @@
     </row>
     <row r="6" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="88">
         <v>459000</v>
@@ -4542,35 +4607,35 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="89">
         <f>C6*C5</f>
-        <v>259495650</v>
+        <v>286103880</v>
       </c>
       <c r="D7" s="72"/>
       <c r="F7" s="73" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="74">
-        <f>Schedules!J18</f>
-        <v>1877850</v>
+        <f>Schedules!J20</f>
+        <v>2343450</v>
       </c>
       <c r="K7" s="74">
-        <f>Schedules!K18</f>
-        <v>7748788.3200000003</v>
+        <f>Schedules!K20</f>
+        <v>9988582.0515000001</v>
       </c>
       <c r="L7" s="74">
-        <f>Schedules!L18</f>
-        <v>8866402.0200000014</v>
+        <f>Schedules!L20</f>
+        <v>11230089.978412502</v>
       </c>
       <c r="M7" s="74">
-        <f>Schedules!M18</f>
-        <v>9974702.2725000009</v>
+        <f>Schedules!M20</f>
+        <v>12577700.775822002</v>
       </c>
       <c r="N7" s="74">
-        <f>Schedules!N18</f>
-        <v>11221540.056562502</v>
+        <f>Schedules!N20</f>
+        <v>14087024.868920643</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.2">
@@ -4581,23 +4646,23 @@
       </c>
       <c r="J8" s="30">
         <f>J7*J9</f>
-        <v>394348.5</v>
+        <v>492124.5</v>
       </c>
       <c r="K8" s="30">
         <f>K7*K9</f>
-        <v>1627245.5471999999</v>
+        <v>2097602.2308149999</v>
       </c>
       <c r="L8" s="30">
         <f>L7*L9</f>
-        <v>1861944.4242000002</v>
+        <v>2358318.8954666252</v>
       </c>
       <c r="M8" s="30">
         <f>M7*M9</f>
-        <v>2094687.477225</v>
+        <v>2641317.1629226203</v>
       </c>
       <c r="N8" s="58">
         <f>N7*N9</f>
-        <v>2356523.4118781253</v>
+        <v>2958275.222473335</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
@@ -4637,7 +4702,7 @@
     </row>
     <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="90">
         <v>6601000</v>
@@ -4648,23 +4713,23 @@
       </c>
       <c r="J10" s="76">
         <f>J7-J8</f>
-        <v>1483501.5</v>
+        <v>1851325.5</v>
       </c>
       <c r="K10" s="76">
         <f>K7-K8</f>
-        <v>6121542.7728000004</v>
+        <v>7890979.8206850002</v>
       </c>
       <c r="L10" s="76">
         <f>L7-L8</f>
-        <v>7004457.5958000012</v>
+        <v>8871771.0829458758</v>
       </c>
       <c r="M10" s="76">
         <f>M7-M8</f>
-        <v>7880014.7952750009</v>
+        <v>9936383.6128993817</v>
       </c>
       <c r="N10" s="77">
         <f>N7-N8</f>
-        <v>8865016.6446843762</v>
+        <v>11128749.646447308</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
@@ -4672,32 +4737,32 @@
       <c r="C11" s="90"/>
       <c r="D11" s="87"/>
       <c r="F11" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J11" s="78">
-        <f>Schedules!J59</f>
-        <v>481500</v>
+        <f>Schedules!J61</f>
+        <v>459000</v>
       </c>
       <c r="K11" s="78">
-        <f>Schedules!K59</f>
-        <v>1986868.8000000003</v>
+        <f>Schedules!K61</f>
+        <v>1956414.3299999998</v>
       </c>
       <c r="L11" s="78">
-        <f>Schedules!L59</f>
-        <v>2284899.12</v>
+        <f>Schedules!L61</f>
+        <v>2233877.3578679999</v>
       </c>
       <c r="M11" s="78">
-        <f>Schedules!M59</f>
-        <v>2570511.5100000002</v>
+        <f>Schedules!M61</f>
+        <v>2501942.6408121604</v>
       </c>
       <c r="N11" s="78">
-        <f>Schedules!N59</f>
-        <v>2891825.4487500004</v>
+        <f>Schedules!N61</f>
+        <v>2802175.7577096196</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -4707,24 +4772,24 @@
         <v>18</v>
       </c>
       <c r="J12" s="78">
-        <f>Schedules!J21</f>
-        <v>267500</v>
+        <f>Schedules!J23</f>
+        <v>255000</v>
       </c>
       <c r="K12" s="78">
-        <f>Schedules!K21</f>
-        <v>1103816.0000000002</v>
+        <f>Schedules!K23</f>
+        <v>1086896.8500000001</v>
       </c>
       <c r="L12" s="78">
-        <f>Schedules!L21</f>
-        <v>1241793.0000000002</v>
+        <f>Schedules!L23</f>
+        <v>1214063.7814500001</v>
       </c>
       <c r="M12" s="78">
-        <f>Schedules!M21</f>
-        <v>1397017.1250000002</v>
+        <f>Schedules!M23</f>
+        <v>1359751.4352240004</v>
       </c>
       <c r="N12" s="78">
-        <f>Schedules!N21</f>
-        <v>1571644.2656250002</v>
+        <f>Schedules!N23</f>
+        <v>1522921.6074508803</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.2">
@@ -4733,31 +4798,31 @@
       </c>
       <c r="C13" s="30">
         <f>C7+C9-C10+C12</f>
-        <v>256990650</v>
+        <v>283598880</v>
       </c>
       <c r="D13" s="72"/>
       <c r="F13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="79">
-        <f>Schedules!J52</f>
-        <v>117700</v>
+        <f>Schedules!J54</f>
+        <v>112200</v>
       </c>
       <c r="K13" s="79">
-        <f>Schedules!K52</f>
-        <v>485679.04000000004</v>
+        <f>Schedules!K54</f>
+        <v>478234.61399999994</v>
       </c>
       <c r="L13" s="79">
-        <f>Schedules!L52</f>
-        <v>496717.20000000007</v>
+        <f>Schedules!L54</f>
+        <v>485625.51258000004</v>
       </c>
       <c r="M13" s="79">
-        <f>Schedules!M52</f>
-        <v>558806.85000000009</v>
+        <f>Schedules!M54</f>
+        <v>543900.57408960012</v>
       </c>
       <c r="N13" s="80">
-        <f>Schedules!N52</f>
-        <v>628657.70625000005</v>
+        <f>Schedules!N54</f>
+        <v>609168.64298035216</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.2">
@@ -4770,24 +4835,24 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="31">
-        <f>Schedules!J47</f>
-        <v>-291225</v>
+        <f>Schedules!J49</f>
+        <v>-297475</v>
       </c>
       <c r="K14" s="31">
-        <f>Schedules!K47</f>
-        <v>59133</v>
+        <f>Schedules!K49</f>
+        <v>56923.425000000279</v>
       </c>
       <c r="L14" s="31">
-        <f>Schedules!L47</f>
-        <v>68988.5</v>
+        <f>Schedules!L49</f>
+        <v>63583.465724999551</v>
       </c>
       <c r="M14" s="31">
-        <f>Schedules!M47</f>
-        <v>77612.062500000466</v>
+        <f>Schedules!M49</f>
+        <v>72843.826887000352</v>
       </c>
       <c r="N14" s="31">
-        <f>Schedules!N47</f>
-        <v>87313.570312499534</v>
+        <f>Schedules!N49</f>
+        <v>81585.086113440339</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -4795,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="92">
-        <v>4.8800000000000003E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="D15" s="87"/>
       <c r="F15" s="73" t="s">
@@ -4803,23 +4868,23 @@
       </c>
       <c r="J15" s="76">
         <f>J10+J12+J11-J13-J14</f>
-        <v>2406026.5</v>
+        <v>2750600.5</v>
       </c>
       <c r="K15" s="76">
         <f t="shared" ref="K15:N15" si="0">K10+K12+K11-K13-K14</f>
-        <v>8667415.5328000002</v>
+        <v>10399132.961685</v>
       </c>
       <c r="L15" s="76">
         <f t="shared" si="0"/>
-        <v>9965444.015800003</v>
+        <v>11770503.243958877</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" si="0"/>
-        <v>11211124.517775001</v>
+        <v>13181333.287958942</v>
       </c>
       <c r="N15" s="76">
         <f t="shared" si="0"/>
-        <v>12612515.082496876</v>
+        <v>14763093.282514015</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -4827,44 +4892,44 @@
         <v>23</v>
       </c>
       <c r="C16" s="152">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D16" s="87"/>
       <c r="F16" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="20">
         <f>(1/(1+$C$24))^(0.08)</f>
-        <v>0.99167335292894065</v>
+        <v>0.99160687356597965</v>
       </c>
       <c r="K16" s="20">
         <f>(1/(1+$C$24))^0.67</f>
-        <v>0.93236806459089627</v>
+        <v>0.93184472564538356</v>
       </c>
       <c r="L16" s="20">
         <f>(1/(1+$C$24))^1.67</f>
-        <v>0.83983783133590406</v>
+        <v>0.83866333726526798</v>
       </c>
       <c r="M16" s="20">
         <f>(1/(1+$C$24))^2.67</f>
-        <v>0.7564904995458821</v>
+        <v>0.7547997793149297</v>
       </c>
       <c r="N16" s="20">
         <f>(1/(1+$C$24))^3.67</f>
-        <v>0.68141473812018394</v>
+        <v>0.6793222995911935</v>
       </c>
       <c r="P16" s="52"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="93">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="D17" s="87"/>
       <c r="F17" s="83" t="s">
@@ -4875,23 +4940,23 @@
       <c r="I17" s="10"/>
       <c r="J17" s="84">
         <f>J15*J16</f>
-        <v>2385992.3664908838</v>
+        <v>2727514.3622340206</v>
       </c>
       <c r="K17" s="84">
         <f>K15*K16</f>
-        <v>8081221.4453218086</v>
+        <v>9690377.2016312238</v>
       </c>
       <c r="L17" s="84">
         <f>L15*L16</f>
-        <v>8369356.8905288372</v>
+        <v>9871489.5318702143</v>
       </c>
       <c r="M17" s="84">
         <f>M15*M16</f>
-        <v>8481109.1869226974</v>
+        <v>9949267.456827946</v>
       </c>
       <c r="N17" s="85">
         <f>N15*N16</f>
-        <v>8594353.661976479</v>
+        <v>10028898.477756722</v>
       </c>
       <c r="R17" s="53"/>
       <c r="S17" s="54"/>
@@ -4900,24 +4965,24 @@
       <c r="V17" s="54"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="94">
         <f>C15+(C16*C17)</f>
-        <v>0.11205000000000001</v>
+        <v>0.11299999999999999</v>
       </c>
       <c r="D18" s="72"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-    </row>
-    <row r="19" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="204"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+    </row>
+    <row r="19" spans="2:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="D19" s="72"/>
       <c r="F19" s="110" t="s">
@@ -4936,7 +5001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>30</v>
       </c>
@@ -4949,21 +5014,21 @@
       </c>
       <c r="I20" s="58">
         <f>N15</f>
-        <v>12612515.082496876</v>
+        <v>14763093.282514015</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N20" s="58">
-        <f>Schedules!N23</f>
-        <v>12793184.322187502</v>
-      </c>
-      <c r="P20" s="199" t="s">
+        <f>Schedules!N25</f>
+        <v>15609946.476371523</v>
+      </c>
+      <c r="P20" s="208" t="s">
         <v>34</v>
       </c>
       <c r="Q20" s="55">
         <f>I33</f>
-        <v>309.02026909276663</v>
+        <v>357.63497835539215</v>
       </c>
       <c r="R20" s="56">
         <v>1.4999999999999999E-2</v>
@@ -4984,7 +5049,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="D21" s="72"/>
       <c r="F21" s="81" t="s">
@@ -4997,39 +5062,39 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K21" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="182">
         <f>C34</f>
-        <v>18</v>
-      </c>
-      <c r="P21" s="199"/>
+        <v>21</v>
+      </c>
+      <c r="P21" s="208"/>
       <c r="Q21" s="171">
         <v>0.1</v>
       </c>
       <c r="R21" s="30">
-        <f t="dataTable" ref="R21:W25" dt2D="1" dtr="1" r1="C33" r2="C24" ca="1"/>
-        <v>316.46917810228473</v>
+        <f t="dataTable" ref="R21:W25" dt2D="1" dtr="1" r1="C33" r2="C24"/>
+        <v>370.17261072034984</v>
       </c>
       <c r="S21" s="30">
-        <v>332.13422268819897</v>
+        <v>388.50872472964306</v>
       </c>
       <c r="T21" s="30">
-        <v>349.88793988556836</v>
+        <v>409.2896539401753</v>
       </c>
       <c r="U21" s="30">
-        <v>370.1779023968478</v>
+        <v>433.03928732364079</v>
       </c>
       <c r="V21" s="30">
-        <v>393.5893976021701</v>
+        <v>460.44271045840867</v>
       </c>
       <c r="W21" s="58">
-        <v>420.90280867504617</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>492.41337078230453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>32</v>
       </c>
@@ -5043,39 +5108,39 @@
       </c>
       <c r="I22" s="102">
         <f>(I20*(1+I21))/(C24-I21)</f>
-        <v>151777271.86772117</v>
+        <v>175736771.93674812</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>202</v>
       </c>
       <c r="N22" s="58">
         <f>N20*N21</f>
-        <v>230277317.79937503</v>
-      </c>
-      <c r="P22" s="199"/>
+        <v>327808876.003802</v>
+      </c>
+      <c r="P22" s="208"/>
       <c r="Q22" s="171">
         <v>0.105</v>
       </c>
       <c r="R22" s="30">
-        <v>299.27234499812175</v>
+        <v>350.03932347825412</v>
       </c>
       <c r="S22" s="30">
-        <v>313.0292361144493</v>
+        <v>366.1419220083107</v>
       </c>
       <c r="T22" s="30">
-        <v>328.50573862031769</v>
+        <v>384.25734535462436</v>
       </c>
       <c r="U22" s="30">
-        <v>346.04577479363525</v>
+        <v>404.7881584804465</v>
       </c>
       <c r="V22" s="30">
-        <v>366.09153042028385</v>
+        <v>428.25194490995756</v>
       </c>
       <c r="W22" s="58">
-        <v>389.22124845103224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+        <v>455.32554463631647</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>33</v>
       </c>
@@ -5090,7 +5155,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="82">
         <f>N16</f>
-        <v>0.68141473812018394</v>
+        <v>0.6793222995911935</v>
       </c>
       <c r="K23" s="81" t="s">
         <v>24</v>
@@ -5099,38 +5164,38 @@
       <c r="M23" s="10"/>
       <c r="N23" s="82">
         <f>N16</f>
-        <v>0.68141473812018394</v>
-      </c>
-      <c r="P23" s="199"/>
+        <v>0.6793222995911935</v>
+      </c>
+      <c r="P23" s="208"/>
       <c r="Q23" s="171">
         <v>0.11</v>
       </c>
       <c r="R23" s="30">
-        <v>283.89144855076694</v>
+        <v>332.03165991202741</v>
       </c>
       <c r="S23" s="30">
-        <v>296.05276387752929</v>
+        <v>346.26661871546366</v>
       </c>
       <c r="T23" s="30">
-        <v>309.64482218391072</v>
+        <v>362.17627855459813</v>
       </c>
       <c r="U23" s="30">
-        <v>324.93588777858986</v>
+        <v>380.07464587362438</v>
       </c>
       <c r="V23" s="30">
-        <v>342.26576211922617</v>
+        <v>400.35946216852091</v>
       </c>
       <c r="W23" s="58">
-        <v>362.07133279423914</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+        <v>423.54210936268834</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="95">
         <f>(C22*C18)+(C23*(1-C32)*C20)</f>
-        <v>0.11017631000000001</v>
+        <v>0.11110702499999998</v>
       </c>
       <c r="D24" s="96"/>
       <c r="F24" s="73" t="s">
@@ -5138,91 +5203,91 @@
       </c>
       <c r="I24" s="103">
         <f>I22*I23</f>
-        <v>103423269.96233918</v>
+        <v>119381908.03480485</v>
       </c>
       <c r="K24" s="73" t="s">
         <v>35</v>
       </c>
       <c r="N24" s="77">
         <f>N22*N23</f>
-        <v>156914358.2032795</v>
-      </c>
-      <c r="P24" s="199"/>
+        <v>222687879.47330719</v>
+      </c>
+      <c r="P24" s="208"/>
       <c r="Q24" s="171">
         <v>0.115</v>
       </c>
       <c r="R24" s="30">
-        <v>270.05398318351092</v>
+        <v>315.83064828302503</v>
       </c>
       <c r="S24" s="30">
-        <v>280.86860946407188</v>
+        <v>328.4892921420136</v>
       </c>
       <c r="T24" s="30">
-        <v>292.88486088691735</v>
+        <v>342.55445198533408</v>
       </c>
       <c r="U24" s="30">
-        <v>306.31478894774466</v>
+        <v>358.27433651610409</v>
       </c>
       <c r="V24" s="30">
-        <v>321.42345801617535</v>
+        <v>375.95920661322032</v>
       </c>
       <c r="W24" s="58">
-        <v>338.54661629373015</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+        <v>396.00205938995208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="D25" s="72"/>
       <c r="F25" s="38"/>
       <c r="I25" s="72"/>
       <c r="K25" s="38"/>
       <c r="N25" s="72"/>
-      <c r="P25" s="199"/>
+      <c r="P25" s="208"/>
       <c r="Q25" s="172">
         <v>0.12</v>
       </c>
       <c r="R25" s="114">
-        <v>257.53935182532928</v>
+        <v>301.1780763714255</v>
       </c>
       <c r="S25" s="114">
-        <v>267.20781834753149</v>
+        <v>312.49512711289253</v>
       </c>
       <c r="T25" s="114">
-        <v>277.89401818786018</v>
+        <v>325.00344635346124</v>
       </c>
       <c r="U25" s="114">
-        <v>289.76757356600319</v>
+        <v>338.90157884298208</v>
       </c>
       <c r="V25" s="114">
-        <v>303.03801781216305</v>
+        <v>354.43478574303481</v>
       </c>
       <c r="W25" s="59">
-        <v>317.9672675890929</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="196" t="s">
+        <v>371.90964350559409</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="198"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="4"/>
       <c r="F26" s="38" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="58">
         <f>I24</f>
-        <v>103423269.96233918</v>
+        <v>119381908.03480485</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>35</v>
       </c>
       <c r="N26" s="58">
         <f>N24</f>
-        <v>156914358.2032795</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+        <v>222687879.47330719</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>37</v>
       </c>
@@ -5238,7 +5303,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="59">
         <f>SUM(J17:N17)</f>
-        <v>35912033.551240705</v>
+        <v>42267547.03032013</v>
       </c>
       <c r="K27" s="81" t="s">
         <v>38</v>
@@ -5247,10 +5312,10 @@
       <c r="M27" s="10"/>
       <c r="N27" s="59">
         <f>SUM(J17:N17)</f>
-        <v>35912033.551240705</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42267547.03032013</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>15</v>
       </c>
@@ -5264,20 +5329,20 @@
       </c>
       <c r="I28" s="77">
         <f>I26+I27</f>
-        <v>139335303.51357988</v>
+        <v>161649455.06512499</v>
       </c>
       <c r="K28" s="73" t="s">
         <v>19</v>
       </c>
       <c r="N28" s="77">
         <f>N26+N27</f>
-        <v>192826391.75452021</v>
+        <v>264955426.50362733</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
         <v>0</v>
       </c>
@@ -5300,33 +5365,33 @@
         <f>C29</f>
         <v>-2505000</v>
       </c>
-      <c r="P29" s="199" t="s">
+      <c r="P29" s="208" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="55">
         <f>N33</f>
-        <v>426</v>
+        <v>583</v>
       </c>
       <c r="R29" s="60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S29" s="60">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="T29" s="60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U29" s="60">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="V29" s="60">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W29" s="61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
       <c r="D30" s="72"/>
       <c r="F30" s="81" t="s">
@@ -5338,9 +5403,6 @@
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="K30" s="81" t="s">
         <v>40</v>
       </c>
@@ -5350,75 +5412,77 @@
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="P30" s="199"/>
+      <c r="P30" s="208"/>
       <c r="Q30" s="171">
         <v>0.1</v>
       </c>
       <c r="R30" s="62">
-        <f t="dataTable" ref="R30:W34" dt2D="1" dtr="1" r1="C34" r2="C24"/>
-        <v>419</v>
+        <f t="dataTable" ref="R30:W34" dt2D="1" dtr="1" r1="C34" r2="C24" ca="1"/>
+        <v>579</v>
       </c>
       <c r="S30" s="62">
-        <v>429</v>
+        <v>591</v>
       </c>
       <c r="T30" s="62">
-        <v>439</v>
+        <v>603</v>
       </c>
       <c r="U30" s="62">
-        <v>449</v>
+        <v>615</v>
       </c>
       <c r="V30" s="62">
-        <v>458</v>
+        <v>627</v>
       </c>
       <c r="W30" s="63">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="196" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="197"/>
-      <c r="D31" s="198"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="207"/>
       <c r="E31" s="4"/>
       <c r="F31" s="73" t="s">
         <v>42</v>
       </c>
       <c r="I31" s="77">
         <f>I28-I29</f>
-        <v>141840303.51357988</v>
+        <v>164154455.06512499</v>
       </c>
       <c r="K31" s="73" t="s">
         <v>42</v>
       </c>
       <c r="N31" s="77">
         <f>N28-N29</f>
-        <v>195331391.75452021</v>
-      </c>
-      <c r="P31" s="199"/>
+        <v>267460426.50362733</v>
+      </c>
+      <c r="P31" s="208"/>
       <c r="Q31" s="171">
         <v>0.105</v>
       </c>
       <c r="R31" s="62">
-        <v>413</v>
+        <v>570</v>
       </c>
       <c r="S31" s="62">
-        <v>423</v>
+        <v>582</v>
       </c>
       <c r="T31" s="62">
-        <v>432</v>
+        <v>594</v>
       </c>
       <c r="U31" s="62">
-        <v>442</v>
+        <v>605</v>
       </c>
       <c r="V31" s="62">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="W31" s="63">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="AK31" s="188"/>
+      <c r="AL31" s="188"/>
+    </row>
+    <row r="32" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>16</v>
       </c>
@@ -5440,30 +5504,34 @@
         <f>C6</f>
         <v>459000</v>
       </c>
-      <c r="P32" s="199"/>
+      <c r="P32" s="208"/>
       <c r="Q32" s="171">
         <v>0.11</v>
       </c>
       <c r="R32" s="62">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="S32" s="62">
-        <v>416</v>
+        <v>573</v>
       </c>
       <c r="T32" s="62">
-        <v>426</v>
+        <v>585</v>
       </c>
       <c r="U32" s="62">
-        <v>435</v>
+        <v>596</v>
       </c>
       <c r="V32" s="62">
-        <v>445</v>
+        <v>608</v>
       </c>
       <c r="W32" s="63">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="AK32" s="189"/>
+      <c r="AL32" s="190"/>
+      <c r="AM32" s="189"/>
+      <c r="AN32" s="190"/>
+    </row>
+    <row r="33" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
         <v>31</v>
       </c>
@@ -5478,7 +5546,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="32">
         <f>I31/I32</f>
-        <v>309.02026909276663</v>
+        <v>357.63497835539215</v>
       </c>
       <c r="K33" s="185" t="s">
         <v>43</v>
@@ -5487,37 +5555,41 @@
       <c r="M33" s="186"/>
       <c r="N33" s="187">
         <f>ROUND(N31/N32,0)</f>
-        <v>426</v>
-      </c>
-      <c r="P33" s="199"/>
+        <v>583</v>
+      </c>
+      <c r="P33" s="208"/>
       <c r="Q33" s="171">
         <v>0.115</v>
       </c>
       <c r="R33" s="62">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="S33" s="62">
-        <v>410</v>
+        <v>564</v>
       </c>
       <c r="T33" s="62">
-        <v>419</v>
+        <v>576</v>
       </c>
       <c r="U33" s="62">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="V33" s="62">
-        <v>438</v>
+        <v>599</v>
       </c>
       <c r="W33" s="63">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+      <c r="AK33" s="189"/>
+      <c r="AL33" s="191"/>
+      <c r="AM33" s="189"/>
+      <c r="AN33" s="190"/>
+    </row>
+    <row r="34" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="113">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" s="98"/>
       <c r="F34" s="75" t="s">
@@ -5527,7 +5599,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="105">
         <f>I33/$C$5-1</f>
-        <v>-0.4534000723573598</v>
+        <v>-0.42624177251589535</v>
       </c>
       <c r="K34" s="75" t="s">
         <v>44</v>
@@ -5536,32 +5608,36 @@
       <c r="M34" s="10"/>
       <c r="N34" s="184">
         <f>N33/$C$5-1</f>
-        <v>-0.24648447864154954</v>
-      </c>
-      <c r="P34" s="199"/>
+        <v>-6.4685875633703427E-2</v>
+      </c>
+      <c r="P34" s="208"/>
       <c r="Q34" s="172">
         <v>0.12</v>
       </c>
       <c r="R34" s="62">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="S34" s="62">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="T34" s="62">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="U34" s="62">
-        <v>422</v>
+        <v>578</v>
       </c>
       <c r="V34" s="62">
-        <v>432</v>
+        <v>590</v>
       </c>
       <c r="W34" s="63">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="AK34" s="189"/>
+      <c r="AL34" s="192"/>
+      <c r="AM34" s="189"/>
+      <c r="AN34" s="193"/>
+    </row>
+    <row r="35" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q35" s="64"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
@@ -5569,9 +5645,54 @@
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
       <c r="W35" s="36"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="AK35" s="189"/>
+      <c r="AL35" s="193"/>
+      <c r="AM35" s="189"/>
+      <c r="AN35" s="193"/>
+    </row>
+    <row r="36" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK36" s="194"/>
+      <c r="AL36" s="195"/>
+      <c r="AM36" s="195"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="G38" s="196"/>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C39" s="19"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D46" s="93"/>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D47" s="93"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D48" s="93"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="93"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="93"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="93"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="93"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="93"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="93"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="93"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5616,11 +5737,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C8DD0-6399-644F-BAA1-BF78766BA224}">
-  <dimension ref="B1:P60"/>
+  <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="118" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5755,7 @@
     <col min="9" max="9" width="14.6640625" style="116" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="130" customWidth="1"/>
     <col min="11" max="14" width="13.33203125" style="116" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -5649,19 +5770,19 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="213" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="204" t="s">
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="213" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -5683,7 +5804,7 @@
         <v>2022</v>
       </c>
       <c r="I3" s="149" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3" s="150" t="s">
         <v>206</v>
@@ -5724,23 +5845,23 @@
         <v>14361000</v>
       </c>
       <c r="J4" s="118">
-        <v>5350000</v>
+        <v>5100000</v>
       </c>
       <c r="K4" s="118">
         <f>(K5+1)*(J4+I4)</f>
-        <v>22076320.000000004</v>
+        <v>21737937</v>
       </c>
       <c r="L4" s="118">
         <f t="shared" ref="L4:N4" si="0">(L5+1)*K4</f>
-        <v>24835860.000000004</v>
+        <v>24281275.629000001</v>
       </c>
       <c r="M4" s="118">
         <f t="shared" si="0"/>
-        <v>27940342.500000004</v>
+        <v>27195028.704480004</v>
       </c>
       <c r="N4" s="118">
         <f t="shared" si="0"/>
-        <v>31432885.312500004</v>
+        <v>30458432.149017606</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -5766,22 +5887,22 @@
         <f>H4/G4-1</f>
         <v>0.11536268609439349</v>
       </c>
-      <c r="I5" s="203">
+      <c r="I5" s="212">
         <f>(I4+J4)/H4-1</f>
-        <v>0.11956151312052699</v>
-      </c>
-      <c r="J5" s="203"/>
+        <v>0.1053618084743837</v>
+      </c>
+      <c r="J5" s="212"/>
       <c r="K5" s="120">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L5" s="120">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M5" s="120">
         <v>0.12</v>
       </c>
-      <c r="L5" s="120">
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="120">
-        <v>0.125</v>
-      </c>
       <c r="N5" s="120">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -5811,23 +5932,23 @@
       </c>
       <c r="J7" s="122">
         <f>J8*J4</f>
-        <v>642000</v>
+        <v>612000</v>
       </c>
       <c r="K7" s="122">
         <f t="shared" ref="K7:N7" si="2">K8*K4</f>
-        <v>2649158.4000000004</v>
+        <v>2608552.44</v>
       </c>
       <c r="L7" s="122">
         <f t="shared" si="2"/>
-        <v>2905795.6200000006</v>
+        <v>2840909.2485930002</v>
       </c>
       <c r="M7" s="122">
         <f t="shared" si="2"/>
-        <v>3269020.0725000007</v>
+        <v>3181818.3584241606</v>
       </c>
       <c r="N7" s="122">
         <f t="shared" si="2"/>
-        <v>3677647.5815625004</v>
+        <v>3563636.5614350601</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -5905,23 +6026,23 @@
       </c>
       <c r="J9" s="125">
         <f t="shared" si="6"/>
-        <v>4708000</v>
+        <v>4488000</v>
       </c>
       <c r="K9" s="125">
         <f t="shared" si="6"/>
-        <v>19427161.600000001</v>
+        <v>19129384.559999999</v>
       </c>
       <c r="L9" s="125">
         <f t="shared" si="6"/>
-        <v>21930064.380000003</v>
+        <v>21440366.380407002</v>
       </c>
       <c r="M9" s="125">
         <f t="shared" si="6"/>
-        <v>24671322.427500002</v>
+        <v>24013210.346055843</v>
       </c>
       <c r="N9" s="125">
         <f t="shared" si="6"/>
-        <v>27755237.730937503</v>
+        <v>26894795.587582547</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -5997,23 +6118,23 @@
       </c>
       <c r="J12" s="126">
         <f>J13*J4</f>
-        <v>1872499.9999999998</v>
+        <v>1785000</v>
       </c>
       <c r="K12" s="126">
         <f t="shared" ref="K12:N12" si="9">K13*K4</f>
-        <v>7726712.0000000009</v>
+        <v>7608277.9499999993</v>
       </c>
       <c r="L12" s="126">
         <f t="shared" si="9"/>
-        <v>8618043.4199999999</v>
+        <v>8425602.6432629991</v>
       </c>
       <c r="M12" s="126">
         <f t="shared" si="9"/>
-        <v>9695298.8475000001</v>
+        <v>9436674.9604545608</v>
       </c>
       <c r="N12" s="126">
         <f t="shared" si="9"/>
-        <v>10907211.2034375</v>
+        <v>10569075.955709109</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -6085,23 +6206,23 @@
       </c>
       <c r="J14" s="126">
         <f>J15*J4</f>
-        <v>909500.00000000012</v>
+        <v>867000.00000000012</v>
       </c>
       <c r="K14" s="126">
         <f>K15*K4</f>
-        <v>3752974.4000000008</v>
+        <v>3695449.29</v>
       </c>
       <c r="L14" s="126">
         <f>L15*L4</f>
-        <v>4222096.2000000011</v>
+        <v>4127816.8569300002</v>
       </c>
       <c r="M14" s="126">
         <f>M15*M4</f>
-        <v>4749858.2250000006</v>
+        <v>4623154.8797616009</v>
       </c>
       <c r="N14" s="126">
         <f>N15*N4</f>
-        <v>5343590.5031250007</v>
+        <v>5177933.4653329933</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -6151,7 +6272,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" s="117">
         <v>91000</v>
@@ -6173,26 +6294,26 @@
       </c>
       <c r="J16" s="126">
         <f>J17*J4</f>
-        <v>48149.999999999993</v>
+        <v>45900</v>
       </c>
       <c r="K16" s="126">
         <f>K17*K4</f>
-        <v>198686.88</v>
+        <v>195641.43299999999</v>
       </c>
       <c r="L16" s="126">
         <f>L17*L4</f>
-        <v>223522.74000000002</v>
+        <v>218531.48066099998</v>
       </c>
       <c r="M16" s="126">
         <f>M17*M4</f>
-        <v>251463.08250000002</v>
+        <v>244755.25834032003</v>
       </c>
       <c r="N16" s="126">
         <f>N17*N4</f>
-        <v>282895.96781250002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <v>274125.88934115844</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>49</v>
       </c>
@@ -6237,7 +6358,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
@@ -6267,26 +6388,27 @@
       </c>
       <c r="J18" s="125">
         <f t="shared" si="14"/>
-        <v>1877850</v>
+        <v>1790100</v>
       </c>
       <c r="K18" s="125">
         <f t="shared" si="14"/>
-        <v>7748788.3200000003</v>
+        <v>7630015.8869999992</v>
       </c>
       <c r="L18" s="125">
         <f t="shared" si="14"/>
-        <v>8866402.0200000014</v>
+        <v>8668415.3995530028</v>
       </c>
       <c r="M18" s="125">
         <f t="shared" si="14"/>
-        <v>9974702.2725000009</v>
+        <v>9708625.2474993616</v>
       </c>
       <c r="N18" s="125">
         <f t="shared" si="14"/>
-        <v>11221540.056562502</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <v>10873660.277199287</v>
+      </c>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>54</v>
       </c>
@@ -6319,399 +6441,408 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="K19" s="129">
-        <f t="shared" si="15"/>
+        <f>K18/K4</f>
         <v>0.35099999999999998</v>
       </c>
       <c r="L19" s="129">
         <f t="shared" si="15"/>
-        <v>0.35699999999999998</v>
+        <v>0.3570000000000001</v>
       </c>
       <c r="M19" s="129">
         <f t="shared" si="15"/>
-        <v>0.35699999999999998</v>
+        <v>0.35700000000000004</v>
       </c>
       <c r="N19" s="129">
         <f t="shared" si="15"/>
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="125">
+        <v>3435452</v>
+      </c>
+      <c r="E20" s="125">
+        <v>4435599</v>
+      </c>
+      <c r="F20" s="125">
+        <v>5520000</v>
+      </c>
+      <c r="G20" s="125">
+        <v>7242000</v>
+      </c>
+      <c r="H20" s="125">
+        <v>7925000</v>
+      </c>
+      <c r="I20" s="125">
+        <v>6732000</v>
+      </c>
+      <c r="J20" s="125">
+        <f>J21*J4</f>
+        <v>2343450</v>
+      </c>
+      <c r="K20" s="125">
+        <f t="shared" ref="K20:N20" si="16">K21*K4</f>
+        <v>9988582.0515000001</v>
+      </c>
+      <c r="L20" s="125">
+        <f t="shared" si="16"/>
+        <v>11230089.978412502</v>
+      </c>
+      <c r="M20" s="125">
+        <f t="shared" si="16"/>
+        <v>12577700.775822002</v>
+      </c>
+      <c r="N20" s="125">
+        <f t="shared" si="16"/>
+        <v>14087024.868920643</v>
+      </c>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="129">
+        <f>D20/D4</f>
+        <v>0.38044872646733113</v>
+      </c>
+      <c r="E21" s="129">
+        <f t="shared" ref="E21:I21" si="17">E20/E4</f>
+        <v>0.39706373646047805</v>
+      </c>
+      <c r="F21" s="129">
+        <f t="shared" si="17"/>
+        <v>0.42897109107864467</v>
+      </c>
+      <c r="G21" s="129">
+        <f t="shared" si="17"/>
+        <v>0.45878999049730756</v>
+      </c>
+      <c r="H21" s="129">
+        <f t="shared" si="17"/>
+        <v>0.45013063728274449</v>
+      </c>
+      <c r="I21" s="129">
+        <f t="shared" si="17"/>
+        <v>0.46876958429078752</v>
+      </c>
+      <c r="J21" s="141">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="K21" s="141">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="L21" s="141">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="M21" s="141">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="N21" s="141">
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D23" s="117">
         <v>346492</v>
       </c>
-      <c r="E21" s="117">
+      <c r="E23" s="117">
         <v>624750</v>
       </c>
-      <c r="F21" s="117">
+      <c r="F23" s="117">
         <v>757000</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G23" s="117">
         <v>788000</v>
       </c>
-      <c r="H21" s="117">
+      <c r="H23" s="117">
         <v>856000</v>
       </c>
-      <c r="I21" s="117">
+      <c r="I23" s="117">
         <v>650000</v>
       </c>
-      <c r="J21" s="126">
-        <f>J22*J4</f>
-        <v>267500</v>
-      </c>
-      <c r="K21" s="126">
-        <f>K22*K4</f>
-        <v>1103816.0000000002</v>
-      </c>
-      <c r="L21" s="126">
-        <f>L22*L4</f>
-        <v>1241793.0000000002</v>
-      </c>
-      <c r="M21" s="126">
-        <f>M22*M4</f>
-        <v>1397017.1250000002</v>
-      </c>
-      <c r="N21" s="126">
-        <f>N22*N4</f>
-        <v>1571644.2656250002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="J23" s="126">
+        <f>J24*J4</f>
+        <v>255000</v>
+      </c>
+      <c r="K23" s="126">
+        <f>K24*K4</f>
+        <v>1086896.8500000001</v>
+      </c>
+      <c r="L23" s="126">
+        <f>L24*L4</f>
+        <v>1214063.7814500001</v>
+      </c>
+      <c r="M23" s="126">
+        <f>M24*M4</f>
+        <v>1359751.4352240004</v>
+      </c>
+      <c r="N23" s="126">
+        <f>N24*N4</f>
+        <v>1522921.6074508803</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="128">
-        <f t="shared" ref="D22:H22" si="16">D21/D4</f>
+      <c r="C24" s="10"/>
+      <c r="D24" s="128">
+        <f t="shared" ref="D24:I24" si="18">D23/D4</f>
         <v>3.8371207087486155E-2</v>
       </c>
-      <c r="E22" s="128">
-        <f t="shared" si="16"/>
+      <c r="E24" s="128">
+        <f t="shared" si="18"/>
         <v>5.5926058544445441E-2</v>
       </c>
-      <c r="F22" s="128">
-        <f t="shared" si="16"/>
+      <c r="F24" s="128">
+        <f t="shared" si="18"/>
         <v>5.8828100714951821E-2</v>
       </c>
-      <c r="G22" s="128">
-        <f t="shared" si="16"/>
+      <c r="G24" s="128">
+        <f t="shared" si="18"/>
         <v>4.9920810896420656E-2</v>
       </c>
-      <c r="H22" s="128">
-        <f t="shared" si="16"/>
+      <c r="H24" s="128">
+        <f t="shared" si="18"/>
         <v>4.8619788708394868E-2</v>
       </c>
-      <c r="I22" s="128">
-        <f>I21/I4</f>
+      <c r="I24" s="128">
+        <f t="shared" si="18"/>
         <v>4.5261472042336888E-2</v>
       </c>
-      <c r="J22" s="146">
+      <c r="J24" s="146">
         <v>0.05</v>
       </c>
-      <c r="K22" s="146">
+      <c r="K24" s="146">
         <v>0.05</v>
       </c>
-      <c r="L22" s="146">
+      <c r="L24" s="146">
         <v>0.05</v>
       </c>
-      <c r="M22" s="146">
+      <c r="M24" s="146">
         <v>0.05</v>
       </c>
-      <c r="N22" s="146">
+      <c r="N24" s="146">
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="125">
-        <f t="shared" ref="D23:E23" si="17">D18+D21</f>
-        <v>3186492</v>
-      </c>
-      <c r="E23" s="125">
-        <f t="shared" si="17"/>
-        <v>3892750</v>
-      </c>
-      <c r="F23" s="125">
-        <f>F18+F21</f>
-        <v>4994000</v>
-      </c>
-      <c r="G23" s="125">
-        <f t="shared" ref="G23:N23" si="18">G18+G21</f>
-        <v>6590000</v>
-      </c>
-      <c r="H23" s="125">
-        <f t="shared" si="18"/>
-        <v>6954000</v>
-      </c>
-      <c r="I23" s="125">
-        <f t="shared" si="18"/>
-        <v>5557000</v>
-      </c>
-      <c r="J23" s="125">
-        <f t="shared" si="18"/>
-        <v>2145350</v>
-      </c>
-      <c r="K23" s="125">
-        <f t="shared" si="18"/>
-        <v>8852604.3200000003</v>
-      </c>
-      <c r="L23" s="125">
-        <f t="shared" si="18"/>
-        <v>10108195.020000001</v>
-      </c>
-      <c r="M23" s="125">
-        <f t="shared" si="18"/>
-        <v>11371719.397500001</v>
-      </c>
-      <c r="N23" s="125">
-        <f t="shared" si="18"/>
-        <v>12793184.322187502</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="D25" s="125">
+        <f t="shared" ref="D25:N25" si="19">D20+D23</f>
+        <v>3781944</v>
+      </c>
+      <c r="E25" s="125">
+        <f t="shared" si="19"/>
+        <v>5060349</v>
+      </c>
+      <c r="F25" s="125">
+        <f t="shared" si="19"/>
+        <v>6277000</v>
+      </c>
+      <c r="G25" s="125">
+        <f t="shared" si="19"/>
+        <v>8030000</v>
+      </c>
+      <c r="H25" s="125">
+        <f t="shared" si="19"/>
+        <v>8781000</v>
+      </c>
+      <c r="I25" s="125">
+        <f t="shared" si="19"/>
+        <v>7382000</v>
+      </c>
+      <c r="J25" s="125">
+        <f t="shared" si="19"/>
+        <v>2598450</v>
+      </c>
+      <c r="K25" s="125">
+        <f t="shared" si="19"/>
+        <v>11075478.9015</v>
+      </c>
+      <c r="L25" s="125">
+        <f t="shared" si="19"/>
+        <v>12444153.759862501</v>
+      </c>
+      <c r="M25" s="125">
+        <f t="shared" si="19"/>
+        <v>13937452.211046003</v>
+      </c>
+      <c r="N25" s="125">
+        <f t="shared" si="19"/>
+        <v>15609946.476371523</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="143">
-        <f t="shared" ref="F24:N24" si="19">F23/F4</f>
-        <v>0.38809449797948398</v>
-      </c>
-      <c r="G24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.41748495407031994</v>
-      </c>
-      <c r="H24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.3949789844371237</v>
-      </c>
-      <c r="I24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.38695076944502471</v>
-      </c>
-      <c r="J24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="K24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.40099999999999997</v>
-      </c>
-      <c r="L24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="M24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="N24" s="143">
-        <f t="shared" si="19"/>
-        <v>0.40700000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-    </row>
-    <row r="27" spans="2:14" s="109" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="107" t="s">
+      <c r="F26" s="143">
+        <f t="shared" ref="F26:N26" si="20">F25/F4</f>
+        <v>0.48779919179359654</v>
+      </c>
+      <c r="G26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.50871080139372826</v>
+      </c>
+      <c r="H26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.49875042599113939</v>
+      </c>
+      <c r="I26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.5140310563331244</v>
+      </c>
+      <c r="J26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="K26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="L26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="M26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="N26" s="143">
+        <f t="shared" si="20"/>
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+    </row>
+    <row r="29" spans="2:15" s="109" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="116">
+      <c r="D30" s="116">
         <v>2018</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E30" s="116">
         <v>2019</v>
       </c>
-      <c r="F28" s="116">
+      <c r="F30" s="116">
         <v>2020</v>
       </c>
-      <c r="G28" s="116">
+      <c r="G30" s="116">
         <v>2021</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H30" s="116">
         <v>2022</v>
       </c>
-      <c r="I28" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="J28" s="150" t="s">
+      <c r="I30" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="147" t="s">
+      <c r="K30" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="147" t="s">
+      <c r="L30" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="147" t="s">
+      <c r="M30" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="N28" s="147" t="s">
+      <c r="N30" s="147" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D32" s="117">
         <v>1315578</v>
       </c>
-      <c r="E30" s="117">
+      <c r="E32" s="117">
         <v>1534809</v>
       </c>
-      <c r="F30" s="117">
+      <c r="F32" s="117">
         <v>1398000</v>
       </c>
-      <c r="G30" s="117">
+      <c r="G32" s="117">
         <v>1878000</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H32" s="117">
         <v>2065000</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I32" s="117">
         <v>1851000</v>
       </c>
-      <c r="J30" s="132">
-        <f>I31*(I4+J4)</f>
-        <v>2266765</v>
-      </c>
-      <c r="K30" s="132">
-        <f>K31*K4</f>
-        <v>2538776.8000000007</v>
-      </c>
-      <c r="L30" s="132">
-        <f>L31*L4</f>
-        <v>2856123.9000000004</v>
-      </c>
-      <c r="M30" s="132">
-        <f>M31*M4</f>
-        <v>3213139.3875000007</v>
-      </c>
-      <c r="N30" s="132">
-        <f>N31*N4</f>
-        <v>3614781.8109375006</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="129">
-        <f>D30/D4</f>
-        <v>0.14568970099667775</v>
-      </c>
-      <c r="E31" s="129">
-        <f>E30/E4</f>
-        <v>0.13739226568794199</v>
-      </c>
-      <c r="F31" s="129">
-        <f>F30/F4</f>
-        <v>0.10864159154491762</v>
-      </c>
-      <c r="G31" s="129">
-        <f>G30/G4</f>
-        <v>0.11897370921761166</v>
-      </c>
-      <c r="H31" s="129">
-        <f>H30/H4</f>
-        <v>0.11728956037714415</v>
-      </c>
-      <c r="I31" s="200">
-        <v>0.115</v>
-      </c>
-      <c r="J31" s="201"/>
-      <c r="K31" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="L31" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="M31" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="N31" s="133">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="117">
-        <v>0</v>
-      </c>
-      <c r="E32" s="117">
-        <v>0</v>
-      </c>
-      <c r="F32" s="117">
-        <v>0</v>
-      </c>
-      <c r="G32" s="117">
-        <v>0</v>
-      </c>
-      <c r="H32" s="117">
-        <v>0</v>
-      </c>
-      <c r="I32" s="117">
-        <v>0</v>
-      </c>
-      <c r="J32" s="126">
-        <v>0</v>
-      </c>
-      <c r="K32" s="126">
-        <v>0</v>
-      </c>
-      <c r="L32" s="126">
-        <v>0</v>
-      </c>
-      <c r="M32" s="126">
-        <v>0</v>
-      </c>
-      <c r="N32" s="126">
-        <v>0</v>
+      <c r="J32" s="132">
+        <f>I33*(I4+J4)</f>
+        <v>2238015</v>
+      </c>
+      <c r="K32" s="132">
+        <f>K33*K4</f>
+        <v>2499862.7549999999</v>
+      </c>
+      <c r="L32" s="132">
+        <f>L33*L4</f>
+        <v>2792346.6973350001</v>
+      </c>
+      <c r="M32" s="132">
+        <f>M33*M4</f>
+        <v>3127428.3010152006</v>
+      </c>
+      <c r="N32" s="132">
+        <f>N33*N4</f>
+        <v>3502719.6971370247</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
@@ -6720,300 +6851,295 @@
       </c>
       <c r="D33" s="129">
         <f>D32/D4</f>
-        <v>0</v>
+        <v>0.14568970099667775</v>
       </c>
       <c r="E33" s="129">
         <f>E32/E4</f>
-        <v>0</v>
+        <v>0.13739226568794199</v>
       </c>
       <c r="F33" s="129">
         <f>F32/F4</f>
-        <v>0</v>
+        <v>0.10864159154491762</v>
       </c>
       <c r="G33" s="129">
         <f>G32/G4</f>
-        <v>0</v>
+        <v>0.11897370921761166</v>
       </c>
       <c r="H33" s="129">
         <f>H32/H4</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="200">
-        <v>0</v>
-      </c>
-      <c r="J33" s="201"/>
+        <v>0.11728956037714415</v>
+      </c>
+      <c r="I33" s="209">
+        <v>0.115</v>
+      </c>
+      <c r="J33" s="210"/>
       <c r="K33" s="133">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="L33" s="133">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="M33" s="133">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="N33" s="133">
-        <v>0</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="117">
-        <v>268240</v>
+        <v>0</v>
       </c>
       <c r="E34" s="117">
-        <v>595311</v>
+        <v>0</v>
       </c>
       <c r="F34" s="117">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="117">
-        <v>690000</v>
+        <v>0</v>
       </c>
       <c r="H34" s="117">
-        <v>561000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="117">
-        <v>961000</v>
-      </c>
-      <c r="J34" s="132">
-        <f>I35*(J4+I4)</f>
-        <v>630752</v>
-      </c>
-      <c r="K34" s="132">
-        <f>K35*K4</f>
-        <v>706442.24000000011</v>
-      </c>
-      <c r="L34" s="132">
-        <f>L35*L4</f>
-        <v>794747.52000000014</v>
-      </c>
-      <c r="M34" s="132">
-        <f>M35*M4</f>
-        <v>894090.9600000002</v>
-      </c>
-      <c r="N34" s="132">
-        <f>N35*N4</f>
-        <v>1005852.3300000002</v>
+        <v>0</v>
+      </c>
+      <c r="J34" s="126">
+        <v>0</v>
+      </c>
+      <c r="K34" s="126">
+        <v>0</v>
+      </c>
+      <c r="L34" s="126">
+        <v>0</v>
+      </c>
+      <c r="M34" s="126">
+        <v>0</v>
+      </c>
+      <c r="N34" s="126">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="128">
+      <c r="D35" s="129">
         <f>D34/D4</f>
-        <v>2.9705426356589147E-2</v>
-      </c>
-      <c r="E35" s="128">
+        <v>0</v>
+      </c>
+      <c r="E35" s="129">
         <f>E34/E4</f>
-        <v>5.3290752842180648E-2</v>
-      </c>
-      <c r="F35" s="128">
+        <v>0</v>
+      </c>
+      <c r="F35" s="129">
         <f>F34/F4</f>
-        <v>4.375194280385452E-2</v>
-      </c>
-      <c r="G35" s="128">
+        <v>0</v>
+      </c>
+      <c r="G35" s="129">
         <f>G34/G4</f>
-        <v>4.3712385175799812E-2</v>
-      </c>
-      <c r="H35" s="128">
+        <v>0</v>
+      </c>
+      <c r="H35" s="129">
         <f>H34/H4</f>
-        <v>3.18641372259457E-2</v>
-      </c>
-      <c r="I35" s="202">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J35" s="207"/>
-      <c r="K35" s="134">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="L35" s="134">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="M35" s="134">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="N35" s="134">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I35" s="209">
+        <v>0</v>
+      </c>
+      <c r="J35" s="210"/>
+      <c r="K35" s="133">
+        <v>0</v>
+      </c>
+      <c r="L35" s="133">
+        <v>0</v>
+      </c>
+      <c r="M35" s="133">
+        <v>0</v>
+      </c>
+      <c r="N35" s="133">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="127">
-        <f t="shared" ref="D36:E36" si="20">D30+D32+D34</f>
-        <v>1583818</v>
-      </c>
-      <c r="E36" s="127">
-        <f t="shared" si="20"/>
-        <v>2130120</v>
-      </c>
-      <c r="F36" s="127">
-        <f>F30+F32+F34</f>
-        <v>1961000</v>
-      </c>
-      <c r="G36" s="127">
-        <f t="shared" ref="G36:N36" si="21">G30+G32+G34</f>
-        <v>2568000</v>
-      </c>
-      <c r="H36" s="127">
-        <f t="shared" si="21"/>
-        <v>2626000</v>
-      </c>
-      <c r="I36" s="127">
-        <f t="shared" si="21"/>
-        <v>2812000</v>
-      </c>
-      <c r="J36" s="127">
-        <f t="shared" si="21"/>
-        <v>2897517</v>
-      </c>
-      <c r="K36" s="127">
-        <f t="shared" si="21"/>
-        <v>3245219.040000001</v>
-      </c>
-      <c r="L36" s="127">
-        <f t="shared" si="21"/>
-        <v>3650871.4200000004</v>
-      </c>
-      <c r="M36" s="127">
-        <f t="shared" si="21"/>
-        <v>4107230.3475000011</v>
-      </c>
-      <c r="N36" s="127">
-        <f t="shared" si="21"/>
-        <v>4620634.1409375006</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="117">
+        <v>268240</v>
+      </c>
+      <c r="E36" s="117">
+        <v>595311</v>
+      </c>
+      <c r="F36" s="117">
+        <v>563000</v>
+      </c>
+      <c r="G36" s="117">
+        <v>690000</v>
+      </c>
+      <c r="H36" s="117">
+        <v>561000</v>
+      </c>
+      <c r="I36" s="117">
+        <v>961000</v>
+      </c>
+      <c r="J36" s="132">
+        <f>I37*(J4+I4)</f>
+        <v>622752</v>
+      </c>
+      <c r="K36" s="132">
+        <f>K37*K4</f>
+        <v>695613.98400000005</v>
+      </c>
+      <c r="L36" s="132">
+        <f>L37*L4</f>
+        <v>777000.82012799999</v>
+      </c>
+      <c r="M36" s="132">
+        <f>M37*M4</f>
+        <v>870240.91854336008</v>
+      </c>
+      <c r="N36" s="132">
+        <f>N37*N4</f>
+        <v>974669.82876856346</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="128">
+        <f>D36/D4</f>
+        <v>2.9705426356589147E-2</v>
+      </c>
+      <c r="E37" s="128">
+        <f>E36/E4</f>
+        <v>5.3290752842180648E-2</v>
+      </c>
+      <c r="F37" s="128">
+        <f>F36/F4</f>
+        <v>4.375194280385452E-2</v>
+      </c>
+      <c r="G37" s="128">
+        <f>G36/G4</f>
+        <v>4.3712385175799812E-2</v>
+      </c>
+      <c r="H37" s="128">
+        <f>H36/H4</f>
+        <v>3.18641372259457E-2</v>
+      </c>
+      <c r="I37" s="211">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J37" s="216"/>
+      <c r="K37" s="134">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L37" s="134">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M37" s="134">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N37" s="134">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="117">
-        <v>1348627</v>
-      </c>
-      <c r="E38" s="117">
-        <v>1575516</v>
-      </c>
-      <c r="F38" s="117">
-        <v>1597000</v>
-      </c>
-      <c r="G38" s="117">
-        <v>1912000</v>
-      </c>
-      <c r="H38" s="117">
-        <v>2048000</v>
-      </c>
-      <c r="I38" s="117">
-        <v>1929000</v>
-      </c>
-      <c r="J38" s="132">
-        <f>I39*(I4+J4)</f>
-        <v>2266765</v>
-      </c>
-      <c r="K38" s="132">
-        <f>K39*K4</f>
-        <v>2538776.8000000007</v>
-      </c>
-      <c r="L38" s="132">
-        <f>L39*L4</f>
-        <v>2856123.9000000004</v>
-      </c>
-      <c r="M38" s="132">
-        <f>M39*M4</f>
-        <v>3213139.3875000007</v>
-      </c>
-      <c r="N38" s="132">
-        <f>N39*N4</f>
-        <v>3614781.8109375006</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="129">
-        <f>D38/D4</f>
-        <v>0.14934961240310077</v>
-      </c>
-      <c r="E39" s="129">
-        <f>E38/E4</f>
-        <v>0.14103625458777191</v>
-      </c>
-      <c r="F39" s="129">
-        <f>F38/F4</f>
-        <v>0.12410631022691949</v>
-      </c>
-      <c r="G39" s="129">
-        <f>G38/G4</f>
-        <v>0.12112765283496991</v>
-      </c>
-      <c r="H39" s="129">
-        <f>H38/H4</f>
-        <v>0.11632398046120641</v>
-      </c>
-      <c r="I39" s="200">
-        <v>0.115</v>
-      </c>
-      <c r="J39" s="201"/>
-      <c r="K39" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="L39" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="M39" s="133">
-        <v>0.115</v>
-      </c>
-      <c r="N39" s="133">
-        <v>0.115</v>
+        <v>59</v>
+      </c>
+      <c r="D38" s="127">
+        <f t="shared" ref="D38:E38" si="21">D32+D34+D36</f>
+        <v>1583818</v>
+      </c>
+      <c r="E38" s="127">
+        <f t="shared" si="21"/>
+        <v>2130120</v>
+      </c>
+      <c r="F38" s="127">
+        <f>F32+F34+F36</f>
+        <v>1961000</v>
+      </c>
+      <c r="G38" s="127">
+        <f t="shared" ref="G38:N38" si="22">G32+G34+G36</f>
+        <v>2568000</v>
+      </c>
+      <c r="H38" s="127">
+        <f t="shared" si="22"/>
+        <v>2626000</v>
+      </c>
+      <c r="I38" s="127">
+        <f t="shared" si="22"/>
+        <v>2812000</v>
+      </c>
+      <c r="J38" s="127">
+        <f t="shared" si="22"/>
+        <v>2860767</v>
+      </c>
+      <c r="K38" s="127">
+        <f t="shared" si="22"/>
+        <v>3195476.7390000001</v>
+      </c>
+      <c r="L38" s="127">
+        <f t="shared" si="22"/>
+        <v>3569347.517463</v>
+      </c>
+      <c r="M38" s="127">
+        <f t="shared" si="22"/>
+        <v>3997669.2195585608</v>
+      </c>
+      <c r="N38" s="127">
+        <f t="shared" si="22"/>
+        <v>4477389.5259055886</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D40" s="117">
-        <v>816</v>
+        <v>1348627</v>
       </c>
       <c r="E40" s="117">
-        <v>32323</v>
+        <v>1575516</v>
       </c>
       <c r="F40" s="117">
-        <v>131000</v>
+        <v>1597000</v>
       </c>
       <c r="G40" s="117">
-        <v>136000</v>
+        <v>1912000</v>
       </c>
       <c r="H40" s="117">
-        <v>121000</v>
+        <v>2048000</v>
       </c>
       <c r="I40" s="117">
-        <v>99000</v>
+        <v>1929000</v>
       </c>
       <c r="J40" s="132">
         <f>I41*(I4+J4)</f>
-        <v>137977</v>
+        <v>2238015</v>
       </c>
       <c r="K40" s="132">
         <f>K41*K4</f>
-        <v>154534.24000000002</v>
+        <v>2499862.7549999999</v>
       </c>
       <c r="L40" s="132">
         <f>L41*L4</f>
-        <v>173851.02000000002</v>
+        <v>2792346.6973350001</v>
       </c>
       <c r="M40" s="132">
         <f>M41*M4</f>
-        <v>195582.39750000002</v>
+        <v>3127428.3010152006</v>
       </c>
       <c r="N40" s="132">
         <f>N41*N4</f>
-        <v>220030.19718750002</v>
+        <v>3502719.6971370247</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
@@ -7022,586 +7148,670 @@
       </c>
       <c r="D41" s="129">
         <f>D40/D4</f>
-        <v>9.0365448504983389E-5</v>
+        <v>0.14934961240310077</v>
       </c>
       <c r="E41" s="129">
         <f>E40/E4</f>
-        <v>2.8934741742010564E-3</v>
+        <v>0.14103625458777191</v>
       </c>
       <c r="F41" s="129">
         <f>F40/F4</f>
-        <v>1.018029219769972E-2</v>
+        <v>0.12410631022691949</v>
       </c>
       <c r="G41" s="129">
         <f>G40/G4</f>
-        <v>8.615774469433006E-3</v>
+        <v>0.12112765283496991</v>
       </c>
       <c r="H41" s="129">
         <f>H40/H4</f>
+        <v>0.11632398046120641</v>
+      </c>
+      <c r="I41" s="209">
+        <v>0.115</v>
+      </c>
+      <c r="J41" s="210"/>
+      <c r="K41" s="133">
+        <v>0.115</v>
+      </c>
+      <c r="L41" s="133">
+        <v>0.115</v>
+      </c>
+      <c r="M41" s="133">
+        <v>0.115</v>
+      </c>
+      <c r="N41" s="133">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="117">
+        <v>816</v>
+      </c>
+      <c r="E42" s="117">
+        <v>32323</v>
+      </c>
+      <c r="F42" s="117">
+        <v>131000</v>
+      </c>
+      <c r="G42" s="117">
+        <v>136000</v>
+      </c>
+      <c r="H42" s="117">
+        <v>121000</v>
+      </c>
+      <c r="I42" s="117">
+        <v>99000</v>
+      </c>
+      <c r="J42" s="132">
+        <f>I43*(I4+J4)</f>
+        <v>136227</v>
+      </c>
+      <c r="K42" s="132">
+        <f>K43*K4</f>
+        <v>152165.55900000001</v>
+      </c>
+      <c r="L42" s="132">
+        <f>L43*L4</f>
+        <v>169968.92940300002</v>
+      </c>
+      <c r="M42" s="132">
+        <f>M43*M4</f>
+        <v>190365.20093136004</v>
+      </c>
+      <c r="N42" s="132">
+        <f>N43*N4</f>
+        <v>213209.02504312326</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="129">
+        <f>D42/D4</f>
+        <v>9.0365448504983389E-5</v>
+      </c>
+      <c r="E43" s="129">
+        <f>E42/E4</f>
+        <v>2.8934741742010564E-3</v>
+      </c>
+      <c r="F43" s="129">
+        <f>F42/F4</f>
+        <v>1.018029219769972E-2</v>
+      </c>
+      <c r="G43" s="129">
+        <f>G42/G4</f>
+        <v>8.615774469433006E-3</v>
+      </c>
+      <c r="H43" s="129">
+        <f>H42/H4</f>
         <v>6.8726570487333861E-3</v>
       </c>
-      <c r="I41" s="202">
+      <c r="I43" s="211">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J41" s="202"/>
-      <c r="K41" s="140">
+      <c r="J43" s="211"/>
+      <c r="K43" s="140">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L41" s="140">
+      <c r="L43" s="140">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M41" s="140">
+      <c r="M43" s="140">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N41" s="140">
+      <c r="N43" s="140">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="135">
-        <f t="shared" ref="D42:E42" si="22">D38+D40</f>
+      <c r="C44" s="37"/>
+      <c r="D44" s="135">
+        <f t="shared" ref="D44:E44" si="23">D40+D42</f>
         <v>1349443</v>
       </c>
-      <c r="E42" s="135">
-        <f t="shared" si="22"/>
+      <c r="E44" s="135">
+        <f t="shared" si="23"/>
         <v>1607839</v>
       </c>
-      <c r="F42" s="135">
-        <f>F38+F40</f>
+      <c r="F44" s="135">
+        <f>F40+F42</f>
         <v>1728000</v>
       </c>
-      <c r="G42" s="135">
-        <f t="shared" ref="G42:N42" si="23">G38+G40</f>
+      <c r="G44" s="135">
+        <f t="shared" ref="G44:N44" si="24">G40+G42</f>
         <v>2048000</v>
       </c>
-      <c r="H42" s="135">
-        <f t="shared" si="23"/>
+      <c r="H44" s="135">
+        <f t="shared" si="24"/>
         <v>2169000</v>
       </c>
-      <c r="I42" s="135">
-        <f t="shared" si="23"/>
+      <c r="I44" s="135">
+        <f t="shared" si="24"/>
         <v>2028000</v>
       </c>
-      <c r="J42" s="135">
-        <f t="shared" si="23"/>
-        <v>2404742</v>
-      </c>
-      <c r="K42" s="135">
-        <f t="shared" si="23"/>
-        <v>2693311.040000001</v>
-      </c>
-      <c r="L42" s="135">
-        <f t="shared" si="23"/>
-        <v>3029974.9200000004</v>
-      </c>
-      <c r="M42" s="135">
-        <f t="shared" si="23"/>
-        <v>3408721.7850000006</v>
-      </c>
-      <c r="N42" s="135">
-        <f t="shared" si="23"/>
-        <v>3834812.0081250006</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="127">
-        <f t="shared" ref="D44:E44" si="24">D36</f>
-        <v>1583818</v>
-      </c>
-      <c r="E44" s="127">
+      <c r="J44" s="135">
         <f t="shared" si="24"/>
-        <v>2130120</v>
-      </c>
-      <c r="F44" s="127">
-        <f>F36</f>
-        <v>1961000</v>
-      </c>
-      <c r="G44" s="127">
-        <f t="shared" ref="G44:N44" si="25">G36</f>
-        <v>2568000</v>
-      </c>
-      <c r="H44" s="127">
-        <f t="shared" si="25"/>
-        <v>2626000</v>
-      </c>
-      <c r="I44" s="127">
-        <f>I36</f>
-        <v>2812000</v>
-      </c>
-      <c r="J44" s="127">
-        <f t="shared" si="25"/>
-        <v>2897517</v>
-      </c>
-      <c r="K44" s="127">
-        <f t="shared" si="25"/>
-        <v>3245219.040000001</v>
-      </c>
-      <c r="L44" s="127">
-        <f t="shared" si="25"/>
-        <v>3650871.4200000004</v>
-      </c>
-      <c r="M44" s="127">
-        <f t="shared" si="25"/>
-        <v>4107230.3475000011</v>
-      </c>
-      <c r="N44" s="127">
-        <f t="shared" si="25"/>
-        <v>4620634.1409375006</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="136">
-        <f t="shared" ref="D45:N45" si="26">D42</f>
-        <v>1349443</v>
-      </c>
-      <c r="E45" s="136">
-        <f t="shared" si="26"/>
-        <v>1607839</v>
-      </c>
-      <c r="F45" s="136">
-        <f t="shared" si="26"/>
-        <v>1728000</v>
-      </c>
-      <c r="G45" s="136">
-        <f t="shared" si="26"/>
-        <v>2048000</v>
-      </c>
-      <c r="H45" s="136">
-        <f t="shared" si="26"/>
-        <v>2169000</v>
-      </c>
-      <c r="I45" s="136">
-        <f t="shared" si="26"/>
-        <v>2028000</v>
-      </c>
-      <c r="J45" s="136">
-        <f t="shared" si="26"/>
-        <v>2404742</v>
-      </c>
-      <c r="K45" s="136">
-        <f t="shared" si="26"/>
-        <v>2693311.040000001</v>
-      </c>
-      <c r="L45" s="136">
-        <f t="shared" si="26"/>
-        <v>3029974.9200000004</v>
-      </c>
-      <c r="M45" s="136">
-        <f t="shared" si="26"/>
-        <v>3408721.7850000006</v>
-      </c>
-      <c r="N45" s="136">
-        <f t="shared" si="26"/>
-        <v>3834812.0081250006</v>
+        <v>2374242</v>
+      </c>
+      <c r="K44" s="135">
+        <f t="shared" si="24"/>
+        <v>2652028.3139999998</v>
+      </c>
+      <c r="L44" s="135">
+        <f t="shared" si="24"/>
+        <v>2962315.6267380002</v>
+      </c>
+      <c r="M44" s="135">
+        <f t="shared" si="24"/>
+        <v>3317793.5019465606</v>
+      </c>
+      <c r="N44" s="135">
+        <f t="shared" si="24"/>
+        <v>3715928.7221801481</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="127">
+        <f t="shared" ref="D46:E46" si="25">D38</f>
+        <v>1583818</v>
+      </c>
+      <c r="E46" s="127">
+        <f t="shared" si="25"/>
+        <v>2130120</v>
+      </c>
+      <c r="F46" s="127">
+        <f>F38</f>
+        <v>1961000</v>
+      </c>
+      <c r="G46" s="127">
+        <f t="shared" ref="G46:N46" si="26">G38</f>
+        <v>2568000</v>
+      </c>
+      <c r="H46" s="127">
+        <f t="shared" si="26"/>
+        <v>2626000</v>
+      </c>
+      <c r="I46" s="127">
+        <f>I38</f>
+        <v>2812000</v>
+      </c>
+      <c r="J46" s="127">
+        <f t="shared" si="26"/>
+        <v>2860767</v>
+      </c>
+      <c r="K46" s="127">
+        <f t="shared" si="26"/>
+        <v>3195476.7390000001</v>
+      </c>
+      <c r="L46" s="127">
+        <f t="shared" si="26"/>
+        <v>3569347.517463</v>
+      </c>
+      <c r="M46" s="127">
+        <f t="shared" si="26"/>
+        <v>3997669.2195585608</v>
+      </c>
+      <c r="N46" s="127">
+        <f t="shared" si="26"/>
+        <v>4477389.5259055886</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="136">
+        <f t="shared" ref="D47:N47" si="27">D44</f>
+        <v>1349443</v>
+      </c>
+      <c r="E47" s="136">
+        <f t="shared" si="27"/>
+        <v>1607839</v>
+      </c>
+      <c r="F47" s="136">
+        <f t="shared" si="27"/>
+        <v>1728000</v>
+      </c>
+      <c r="G47" s="136">
+        <f t="shared" si="27"/>
+        <v>2048000</v>
+      </c>
+      <c r="H47" s="136">
+        <f t="shared" si="27"/>
+        <v>2169000</v>
+      </c>
+      <c r="I47" s="136">
+        <f t="shared" si="27"/>
+        <v>2028000</v>
+      </c>
+      <c r="J47" s="136">
+        <f t="shared" si="27"/>
+        <v>2374242</v>
+      </c>
+      <c r="K47" s="136">
+        <f t="shared" si="27"/>
+        <v>2652028.3139999998</v>
+      </c>
+      <c r="L47" s="136">
+        <f t="shared" si="27"/>
+        <v>2962315.6267380002</v>
+      </c>
+      <c r="M47" s="136">
+        <f t="shared" si="27"/>
+        <v>3317793.5019465606</v>
+      </c>
+      <c r="N47" s="136">
+        <f t="shared" si="27"/>
+        <v>3715928.7221801481</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="127">
-        <f t="shared" ref="D46:N46" si="27">D44-D45</f>
+      <c r="D48" s="127">
+        <f t="shared" ref="D48:N48" si="28">D46-D47</f>
         <v>234375</v>
       </c>
-      <c r="E46" s="127">
-        <f t="shared" si="27"/>
+      <c r="E48" s="127">
+        <f t="shared" si="28"/>
         <v>522281</v>
       </c>
-      <c r="F46" s="127">
-        <f t="shared" si="27"/>
+      <c r="F48" s="127">
+        <f t="shared" si="28"/>
         <v>233000</v>
       </c>
-      <c r="G46" s="127">
-        <f t="shared" si="27"/>
+      <c r="G48" s="127">
+        <f t="shared" si="28"/>
         <v>520000</v>
       </c>
-      <c r="H46" s="127">
-        <f t="shared" si="27"/>
+      <c r="H48" s="127">
+        <f t="shared" si="28"/>
         <v>457000</v>
       </c>
-      <c r="I46" s="127">
-        <f t="shared" si="27"/>
+      <c r="I48" s="127">
+        <f t="shared" si="28"/>
         <v>784000</v>
       </c>
-      <c r="J46" s="127">
-        <f>J44-J45</f>
-        <v>492775</v>
-      </c>
-      <c r="K46" s="127">
-        <f t="shared" si="27"/>
-        <v>551908</v>
-      </c>
-      <c r="L46" s="127">
-        <f t="shared" si="27"/>
-        <v>620896.5</v>
-      </c>
-      <c r="M46" s="127">
-        <f t="shared" si="27"/>
-        <v>698508.56250000047</v>
-      </c>
-      <c r="N46" s="127">
-        <f t="shared" si="27"/>
-        <v>785822.1328125</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+      <c r="J48" s="127">
+        <f>J46-J47</f>
+        <v>486525</v>
+      </c>
+      <c r="K48" s="127">
+        <f t="shared" si="28"/>
+        <v>543448.42500000028</v>
+      </c>
+      <c r="L48" s="127">
+        <f t="shared" si="28"/>
+        <v>607031.89072499983</v>
+      </c>
+      <c r="M48" s="127">
+        <f t="shared" si="28"/>
+        <v>679875.71761200018</v>
+      </c>
+      <c r="N48" s="127">
+        <f t="shared" si="28"/>
+        <v>761460.80372544052</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="125">
-        <f t="shared" ref="D47:F47" si="28">D46-C46</f>
+      <c r="D49" s="125">
+        <f t="shared" ref="D49:F49" si="29">D48-C48</f>
         <v>234375</v>
       </c>
-      <c r="E47" s="125">
-        <f t="shared" si="28"/>
+      <c r="E49" s="125">
+        <f t="shared" si="29"/>
         <v>287906</v>
       </c>
-      <c r="F47" s="125">
-        <f t="shared" si="28"/>
+      <c r="F49" s="125">
+        <f t="shared" si="29"/>
         <v>-289281</v>
       </c>
-      <c r="G47" s="125">
-        <f>G46-F46</f>
+      <c r="G49" s="125">
+        <f>G48-F48</f>
         <v>287000</v>
       </c>
-      <c r="H47" s="125">
-        <f>H46-G46</f>
+      <c r="H49" s="125">
+        <f>H48-G48</f>
         <v>-63000</v>
       </c>
-      <c r="I47" s="125">
-        <f>I46-H46</f>
+      <c r="I49" s="125">
+        <f>I48-H48</f>
         <v>327000</v>
       </c>
-      <c r="J47" s="125">
-        <f>J46-I46</f>
-        <v>-291225</v>
-      </c>
-      <c r="K47" s="125">
-        <f>K46-J46</f>
-        <v>59133</v>
-      </c>
-      <c r="L47" s="125">
-        <f t="shared" ref="L47:N47" si="29">L46-K46</f>
-        <v>68988.5</v>
-      </c>
-      <c r="M47" s="125">
-        <f t="shared" si="29"/>
-        <v>77612.062500000466</v>
-      </c>
-      <c r="N47" s="125">
-        <f t="shared" si="29"/>
-        <v>87313.570312499534</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" s="109" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="107" t="s">
+      <c r="J49" s="125">
+        <f>J48-I48</f>
+        <v>-297475</v>
+      </c>
+      <c r="K49" s="125">
+        <f>K48-J48</f>
+        <v>56923.425000000279</v>
+      </c>
+      <c r="L49" s="125">
+        <f t="shared" ref="L49:N49" si="30">L48-K48</f>
+        <v>63583.465724999551</v>
+      </c>
+      <c r="M49" s="125">
+        <f t="shared" si="30"/>
+        <v>72843.826887000352</v>
+      </c>
+      <c r="N49" s="125">
+        <f t="shared" si="30"/>
+        <v>81585.086113440339</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" s="109" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="115"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="115"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="116">
+      <c r="D52" s="116">
         <v>2018</v>
       </c>
-      <c r="E50" s="116">
+      <c r="E52" s="116">
         <v>2019</v>
       </c>
-      <c r="F50" s="116">
+      <c r="F52" s="116">
         <v>2020</v>
       </c>
-      <c r="G50" s="116">
+      <c r="G52" s="116">
         <v>2021</v>
       </c>
-      <c r="H50" s="116">
+      <c r="H52" s="116">
         <v>2022</v>
       </c>
-      <c r="I50" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="J50" s="150" t="s">
+      <c r="I52" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="K50" s="147" t="s">
+      <c r="K52" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="L50" s="147" t="s">
+      <c r="L52" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="M50" s="147" t="s">
+      <c r="M52" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="N50" s="147" t="s">
+      <c r="N52" s="147" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="137">
+      <c r="D54" s="137">
         <v>266579</v>
       </c>
-      <c r="E52" s="137">
+      <c r="E54" s="137">
         <v>394479</v>
       </c>
-      <c r="F52" s="137">
+      <c r="F54" s="137">
         <v>419000</v>
       </c>
-      <c r="G52" s="137">
+      <c r="G54" s="137">
         <v>348000</v>
       </c>
-      <c r="H52" s="137">
+      <c r="H54" s="137">
         <v>442000</v>
       </c>
-      <c r="I52" s="137">
+      <c r="I54" s="137">
         <v>313000</v>
       </c>
-      <c r="J52" s="138">
-        <f>J53*J4</f>
-        <v>117700</v>
-      </c>
-      <c r="K52" s="138">
-        <f>K53*K4</f>
-        <v>485679.04000000004</v>
-      </c>
-      <c r="L52" s="138">
-        <f>L53*L4</f>
-        <v>496717.20000000007</v>
-      </c>
-      <c r="M52" s="138">
-        <f>M53*M4</f>
-        <v>558806.85000000009</v>
-      </c>
-      <c r="N52" s="138">
-        <f>N53*N4</f>
-        <v>628657.70625000005</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
+      <c r="J54" s="138">
+        <f>J55*J4</f>
+        <v>112200</v>
+      </c>
+      <c r="K54" s="138">
+        <f>K55*K4</f>
+        <v>478234.61399999994</v>
+      </c>
+      <c r="L54" s="138">
+        <f>L55*L4</f>
+        <v>485625.51258000004</v>
+      </c>
+      <c r="M54" s="138">
+        <f>M55*M4</f>
+        <v>543900.57408960012</v>
+      </c>
+      <c r="N54" s="138">
+        <f>N55*N4</f>
+        <v>609168.64298035216</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="141">
-        <f t="shared" ref="D53:I53" si="30">D52/D4</f>
+      <c r="D55" s="141">
+        <f t="shared" ref="D55:I55" si="31">D54/D4</f>
         <v>2.9521483942414176E-2</v>
       </c>
-      <c r="E53" s="141">
-        <f t="shared" si="30"/>
+      <c r="E55" s="141">
+        <f t="shared" si="31"/>
         <v>3.5312774147345807E-2</v>
       </c>
-      <c r="F53" s="141">
-        <f t="shared" si="30"/>
+      <c r="F55" s="141">
+        <f t="shared" si="31"/>
         <v>3.2561392601802921E-2</v>
       </c>
-      <c r="G53" s="141">
-        <f t="shared" si="30"/>
+      <c r="G55" s="141">
+        <f t="shared" si="31"/>
         <v>2.2046246436490339E-2</v>
       </c>
-      <c r="H53" s="141">
-        <f t="shared" si="30"/>
+      <c r="H55" s="141">
+        <f t="shared" si="31"/>
         <v>2.5105077814381462E-2</v>
       </c>
-      <c r="I53" s="141">
-        <f t="shared" si="30"/>
+      <c r="I55" s="141">
+        <f t="shared" si="31"/>
         <v>2.1795139614232992E-2</v>
       </c>
-      <c r="J53" s="142">
+      <c r="J55" s="142">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K53" s="142">
+      <c r="K55" s="142">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L53" s="142">
+      <c r="L55" s="142">
         <v>0.02</v>
       </c>
-      <c r="M53" s="142">
+      <c r="M55" s="142">
         <v>0.02</v>
       </c>
-      <c r="N53" s="142">
+      <c r="N55" s="142">
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-    </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="115"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="116">
+      <c r="D59" s="116">
         <v>2018</v>
       </c>
-      <c r="E57" s="116">
+      <c r="E59" s="116">
         <v>2019</v>
       </c>
-      <c r="F57" s="116">
+      <c r="F59" s="116">
         <v>2020</v>
       </c>
-      <c r="G57" s="116">
+      <c r="G59" s="116">
         <v>2021</v>
       </c>
-      <c r="H57" s="116">
+      <c r="H59" s="116">
         <v>2022</v>
       </c>
-      <c r="I57" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="J57" s="150" t="s">
+      <c r="I59" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="K57" s="147" t="s">
+      <c r="K59" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="147" t="s">
+      <c r="L59" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="M57" s="147" t="s">
+      <c r="M59" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="N57" s="147" t="s">
+      <c r="N59" s="147" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" s="137">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="137">
         <v>609562</v>
       </c>
-      <c r="E59" s="137">
+      <c r="E61" s="137">
         <v>787705</v>
       </c>
-      <c r="F59" s="137">
+      <c r="F61" s="137">
         <v>909000</v>
       </c>
-      <c r="G59" s="137">
+      <c r="G61" s="137">
         <v>1069000</v>
       </c>
-      <c r="H59" s="137">
+      <c r="H61" s="137">
         <v>1440000</v>
       </c>
-      <c r="I59" s="137">
+      <c r="I61" s="137">
         <v>1291000</v>
       </c>
-      <c r="J59" s="138">
-        <f>J60*J4</f>
-        <v>481500</v>
-      </c>
-      <c r="K59" s="138">
-        <f>K60*K4</f>
-        <v>1986868.8000000003</v>
-      </c>
-      <c r="L59" s="138">
-        <f>L60*L4</f>
-        <v>2284899.12</v>
-      </c>
-      <c r="M59" s="138">
-        <f>M60*M4</f>
-        <v>2570511.5100000002</v>
-      </c>
-      <c r="N59" s="138">
-        <f>N60*N4</f>
-        <v>2891825.4487500004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="15" t="s">
+      <c r="J61" s="138">
+        <f>J62*J4</f>
+        <v>459000</v>
+      </c>
+      <c r="K61" s="138">
+        <f>K62*K4</f>
+        <v>1956414.3299999998</v>
+      </c>
+      <c r="L61" s="138">
+        <f>L62*L4</f>
+        <v>2233877.3578679999</v>
+      </c>
+      <c r="M61" s="138">
+        <f>M62*M4</f>
+        <v>2501942.6408121604</v>
+      </c>
+      <c r="N61" s="138">
+        <f>N62*N4</f>
+        <v>2802175.7577096196</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="141">
-        <f t="shared" ref="D60:I60" si="31">D59/D4</f>
+      <c r="D62" s="141">
+        <f t="shared" ref="D62:I62" si="32">D61/D4</f>
         <v>6.7504097452934661E-2</v>
       </c>
-      <c r="E60" s="141">
-        <f t="shared" si="31"/>
+      <c r="E62" s="141">
+        <f t="shared" si="32"/>
         <v>7.0513382866350366E-2</v>
       </c>
-      <c r="F60" s="141">
-        <f t="shared" si="31"/>
+      <c r="F62" s="141">
+        <f t="shared" si="32"/>
         <v>7.0640348150450727E-2</v>
       </c>
-      <c r="G60" s="141">
-        <f t="shared" si="31"/>
+      <c r="G62" s="141">
+        <f t="shared" si="32"/>
         <v>6.7722521381057971E-2</v>
       </c>
-      <c r="H60" s="141">
-        <f t="shared" si="31"/>
+      <c r="H62" s="141">
+        <f t="shared" si="32"/>
         <v>8.1790298761785757E-2</v>
       </c>
-      <c r="I60" s="141">
-        <f t="shared" si="31"/>
+      <c r="I62" s="141">
+        <f t="shared" si="32"/>
         <v>8.989624677947218E-2</v>
       </c>
-      <c r="J60" s="142">
+      <c r="J62" s="142">
         <v>0.09</v>
       </c>
-      <c r="K60" s="142">
+      <c r="K62" s="142">
         <v>0.09</v>
       </c>
-      <c r="L60" s="142">
+      <c r="L62" s="142">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M60" s="142">
+      <c r="M62" s="142">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N60" s="142">
+      <c r="N62" s="142">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7612,7 +7822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F4C05E-7F42-DB47-862E-0113684357CE}">
   <dimension ref="C6:F9"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -7626,28 +7836,28 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
     </row>
     <row r="7" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="180"/>
       <c r="D7" s="181" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="181" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="181" t="s">
         <v>226</v>
-      </c>
-      <c r="E7" s="181" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="181" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="180"/>
       <c r="E8" s="180"/>
